--- a/IAEA/值班表/小学期空课表 - 副本.xlsx
+++ b/IAEA/值班表/小学期空课表 - 副本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\ITF\IAEA\值班表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AD3F1-3B8D-48B9-B7CA-5974BE894F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007DEB98-B5BB-4850-9337-B3FCD90BC396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="593" yWindow="1740" windowWidth="17070" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,6 +108,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,12 +116,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -306,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +356,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -661,15 +667,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -698,8 +704,8 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
@@ -707,7 +713,7 @@
       <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -719,8 +725,8 @@
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
+      <c r="B4" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
@@ -728,7 +734,7 @@
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="13" t="s">

--- a/IAEA/值班表/小学期空课表 - 副本.xlsx
+++ b/IAEA/值班表/小学期空课表 - 副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\ITF\IAEA\值班表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007DEB98-B5BB-4850-9337-B3FCD90BC396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C251AD04-38FC-4875-AF62-91CFB73291DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="593" yWindow="1740" windowWidth="17070" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>晚自习</t>
   </si>
   <si>
-    <t>全员</t>
-  </si>
-  <si>
     <t>曹品硕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -89,6 +86,10 @@
   </si>
   <si>
     <t>满课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做要求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +136,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,9 +355,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -667,15 +670,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -704,20 +707,20 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -725,20 +728,20 @@
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -747,19 +750,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -768,19 +771,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -788,21 +791,21 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
+      <c r="B7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="14" t="s">
-        <v>13</v>
+      <c r="G7" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
